--- a/LED制御値.xlsx
+++ b/LED制御値.xlsx
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>γ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.6774</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,6 +229,10 @@
     <rPh sb="4" eb="5">
       <t>テン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2371,7 +2371,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="2" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -2434,30 +2434,30 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="18">
         <f>SQRT(POWER(B3 - $B$12, 2) + POWER(C3 - $C$12, 2))</f>
         <v>3.9029979464509063E-2</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="18">
         <f>SQRT(POWER(E3 - $E$12, 2) + POWER(F3 - $F$12, 2))</f>
         <v>0.1561376570369877</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="18">
         <f>SQRT(POWER(H3 - $H$12, 2) + POWER(I3 - $I$12, 2))</f>
@@ -2469,30 +2469,30 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D8" si="0">SQRT(POWER(B4 - $B$12, 2) + POWER(C4 - $C$12, 2))</f>
         <v>3.3107921967408326E-2</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G8" si="1">SQRT(POWER(E4 - $E$12, 2) + POWER(F4 - $F$12, 2))</f>
         <v>0.14043991293432215</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J8" si="2">SQRT(POWER(H4 - $H$12, 2) + POWER(I4 - $I$12, 2))</f>
@@ -2504,30 +2504,30 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" si="0"/>
         <v>2.7120672871446195E-2</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="1"/>
         <v>0.1277409658058056</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" si="2"/>
@@ -2539,32 +2539,32 @@
         <v>0.9</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" si="0"/>
         <v>2.901933315911993E-2</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="25">
         <f t="shared" si="1"/>
         <v>0.11692971198544876</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="25">
+      <c r="H6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="22">
         <f t="shared" si="2"/>
         <v>9.2724393769924411E-3</v>
       </c>
@@ -2574,32 +2574,32 @@
         <v>0.8</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>5.1122072502980502E-2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>0.12541612394345475</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="H7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="25">
         <f t="shared" si="2"/>
         <v>2.1341349535584663E-3</v>
       </c>
@@ -2609,30 +2609,30 @@
         <v>0.7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>0.10043780412275052</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>0.14872090016201492</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="2"/>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="30">
         <v>0.64843099999999998</v>

--- a/LED制御値.xlsx
+++ b/LED制御値.xlsx
@@ -2371,7 +2371,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
